--- a/LinkedIn/Excel_Data_Analysis/Exercise Files/Chapter04/Normal.xlsx
+++ b/LinkedIn/Excel_Data_Analysis/Exercise Files/Chapter04/Normal.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21022"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curtis\Desktop\Exercise Files\Chapter04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtalebiz\Desktop\Jupyter\Examples\LinkedIn\Excel_Data_Analysis\Exercise Files\Chapter04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339A79D8-C54E-4283-9D13-972A174B14FB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19D6ED7-97E6-4991-B34F-EBDE96C5C5F4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13335" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11040" yWindow="1830" windowWidth="17760" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -436,6 +434,201 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
+                <c:pt idx="0">
+                  <c:v>2.9632884112517205E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1877475320245033E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9220150509923572E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5073922560245645E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5018934914508668E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0793462007584798E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5341864085024788E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0281859975274034E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5893921343098936E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4136241520128577E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6007041207962535E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.2769677219866452E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.597324015864961E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0745238742432661E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.49296868632286E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0378139818590327E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.732483736348146E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5993977675458709E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.6578050713943445E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.92123073937279E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.3947223119637025E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.072165494151874E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0934004978399576E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2945736998880863E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.505752183114163E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7205188393549176E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.9312770184098847E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.129653370149015E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.3070259545128195E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.4551342686888224E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.5667124973067602E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.6360789392387847E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6596152026762181E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.6360789392387847E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.5667124973067602E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.4551342686888224E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.3070259545128195E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.129653370149015E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9312770184098847E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.7205188393549176E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.505752183114163E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.2945736998880863E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0934004978399576E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.072165494151874E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.3947223119637025E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.92123073937279E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.6578050713943445E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.5993977675458709E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.732483736348146E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.0378139818590327E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.49296868632286E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0745238742432661E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.597324015864961E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.2769677219866452E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.6007041207962535E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.4136241520128577E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.5893921343098936E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.0281859975274034E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.5341864085024788E-5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.0793462007584798E-5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.5018934914508668E-5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.5073922560245645E-5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.9220150509923572E-6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.1877475320245033E-6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.9632884112517205E-6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1486,10 +1679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,21 +1694,30 @@
     <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
+        <f>AVERAGE(A4:A68)</f>
         <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1">
+        <f>_xlfn.NORM.DIST(84, B1,B2,FALSE)</f>
+        <v>1.505752183114163E-2</v>
+      </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1">
+        <f>_xlfn.NORM.INV(0.71, B1, B2)</f>
+        <v>108.30077079333509</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1525,333 +1727,601 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E2">
+        <f>_xlfn.NORM.DIST(84, B1, B2, TRUE)</f>
+        <v>0.14306119219550908</v>
+      </c>
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f>_xlfn.NORM.INV(0.85, B1, B2)</f>
+        <v>115.54650084240684</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>_xlfn.NORM.DIST(A4,$B$1,$B$2,FALSE)</f>
+        <v>2.9632884112517205E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f t="shared" ref="B5:B68" si="0">_xlfn.NORM.DIST(A5,$B$1,$B$2,FALSE)</f>
+        <v>5.1877475320245033E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>8.9220150509923572E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1.5073922560245645E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>2.5018934914508668E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>4.0793462007584798E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>6.5341864085024788E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1.0281859975274034E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>1.5893921343098936E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>2.4136241520128577E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>3.6007041207962535E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>5.2769677219866452E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>7.597324015864961E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1.0745238742432661E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1.49296868632286E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>2.0378139818590327E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>2.732483736348146E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>3.5993977675458709E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>4.6578050713943445E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>5.92123073937279E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>76</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>7.3947223119637025E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>78</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>9.072165494151874E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>1.0934004978399576E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>1.2945736998880863E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>1.505752183114163E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>86</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>1.7205188393549176E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>88</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>1.9312770184098847E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>90</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>2.129653370149015E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>92</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>2.3070259545128195E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>94</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>2.4551342686888224E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>96</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>2.5667124973067602E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>98</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>2.6360789392387847E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>2.6596152026762181E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>102</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>2.6360789392387847E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>104</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>2.5667124973067602E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>106</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>2.4551342686888224E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>108</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>2.3070259545128195E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>110</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>2.129653370149015E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>112</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>1.9312770184098847E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>114</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>1.7205188393549176E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>116</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>1.505752183114163E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>118</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>1.2945736998880863E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>120</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>1.0934004978399576E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>122</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>9.072165494151874E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>124</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>7.3947223119637025E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>126</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>5.92123073937279E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>128</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>4.6578050713943445E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>130</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>3.5993977675458709E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>132</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>2.732483736348146E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>134</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>2.0378139818590327E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>136</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>1.49296868632286E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>138</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>1.0745238742432661E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>140</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>7.597324015864961E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>142</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>5.2769677219866452E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>144</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>3.6007041207962535E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>146</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>2.4136241520128577E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>148</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>1.5893921343098936E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>150</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>1.0281859975274034E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>152</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>6.5341864085024788E-5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>154</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>4.0793462007584798E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>156</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>2.5018934914508668E-5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>158</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>1.5073922560245645E-5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>160</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>8.9220150509923572E-6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>162</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <f t="shared" si="0"/>
+        <v>5.1877475320245033E-6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>164</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="0"/>
+        <v>2.9632884112517205E-6</v>
       </c>
     </row>
   </sheetData>
